--- a/data/DesignedAndPredictedSequences.xlsx
+++ b/data/DesignedAndPredictedSequences.xlsx
@@ -1,19 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarachari/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ClickTags" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="NeuropeptidesNewAndPublished" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="InSituMarkers" sheetId="3" r:id="rId6"/>
+    <sheet name="ClickTags" sheetId="1" r:id="rId1"/>
+    <sheet name="NeuropeptidesNewAndPublished" sheetId="2" r:id="rId2"/>
+    <sheet name="InSituMarkers" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="270">
   <si>
     <t>BarCode</t>
   </si>
@@ -288,10 +304,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>M</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>Fa</t>
     </r>
   </si>
@@ -359,13 +382,7 @@
     <t>MLLILAFWMVLLQQVSAACYNGQVEGSIISLRNGETSECKQGIATKLSAWRNTKREDVTASDTEKNQWHFELFGDSRPLSFANHRGPWMRAGRKDEPRPWLQFGRRDINFEVFHSDKYNEPPFAMINGKRTANSKKIYSEKINELPFAIMKGKRKVNSKRLHSVEINDLPFVMMNGKRHARDNIVGPKGMSLQWASRFGKKDNSKKELKIKNSNSKRNTKPWFDIGSEGSSLQWQVNPFGKRGKRDTLPWYELEGGGLHWNRRIASKRSQRLQLPPRVPHKRGERY</t>
   </si>
   <si>
-    <r>
-      <t>PP25</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>*</t>
-    </r>
+    <t>PP25*</t>
   </si>
   <si>
     <t>XLOC_021799</t>
@@ -374,13 +391,7 @@
     <t>MKSLLVIALFAFCYAKVEEKHKQVHHKQPVEANVKKSPPVQERFGKEEQNSPLEGRFGKESATKPEEEAASHVLAVRSPNDKELPAEYLAHSHKKESIPMKYSGSSEEGDAELPHSMLVGDDKLPHSMINGDEKLPQSMLYARENEDLPLFRKDLPLFKKDLPLFKKDLPLFRKDLPLFHKDLPLFKKDLPLFRKDLPLFRKDLPLFRKDLPLFKKDLPLFRKDLPLFKKDLPLFRKDLPLFKKEIEELPLFRKESSELPLFRKENEDLPLFRKDSELPLFRKENSELPLFRKEASELPL</t>
   </si>
   <si>
-    <r>
-      <t>PP26</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>*</t>
-    </r>
+    <t>PP26*</t>
   </si>
   <si>
     <t>XLOC_008730</t>
@@ -389,13 +400,7 @@
     <t>MRLVNVVLTILTSKIALGEGRPPSRESDIDQQLIRLAHEIRREIQPGPFGNYRGYAPPRLGKRENIDGKKGVTSQKRRTVEALDKIGQILLNHRKSLSSDSEVFKNGKKMMTDHLDTTSRKRTHHFIKAKNVPFWYFNKRGLSNQVDGKKTLGDGNKPAFTHHSQPTFDKFADDVIEKLTTLNKQIKHDAINERDEKMKKRERVGMKSKWNFWPPRLGRKRETTLNRNMEKAKHPYDRILDDKKGL</t>
   </si>
   <si>
-    <r>
-      <t>PP27</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>*</t>
-    </r>
+    <t>PP27*</t>
   </si>
   <si>
     <t>XLOC_014624</t>
@@ -476,15 +481,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Leclère et al 2012 </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Dev Biol. </t>
     </r>
@@ -583,13 +590,7 @@
     <t>SA0AAA9YD16</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">cathepsin L </t>
-    </r>
-    <r>
-      <rPr/>
-      <t>family</t>
-    </r>
+    <t>cathepsin L family</t>
   </si>
   <si>
     <t>CathepsinL</t>
@@ -685,14 +686,7 @@
     <t>SA0AAB28YI15</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">Fibrinogen-C domain protein  </t>
-    </r>
-    <r>
-      <rPr/>
-      <t>2</t>
-    </r>
+    <t>Fibrinogen-C domain protein  2</t>
   </si>
   <si>
     <t>FibCdom-2</t>
@@ -814,13 +808,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>V</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>CBS repeat-containing protein</t>
     </r>
@@ -872,88 +870,124 @@
   </si>
   <si>
     <t>Unknown/Clytia-specific</t>
+  </si>
+  <si>
+    <t>BlockingOligo</t>
+  </si>
+  <si>
+    <t>CACACCAGGTCTCAAAGCGACTTCAATAGCCATAGCCGTCG</t>
+  </si>
+  <si>
+    <t>LCDBF</t>
+  </si>
+  <si>
+    <t>LCDBR</t>
+  </si>
+  <si>
+    <t>ttaaccgtagtaagcgcttacgatagtaaactagtTTACAGCATCTCAACAAAGGATTGC</t>
+  </si>
+  <si>
+    <t>ctagtttactatcgtaagcgcttactacggttaaaaaaATGTACACCCTGGGTATTGATG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Courier New"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Courier New"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF953735"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -961,7 +995,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -977,154 +1011,106 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1314,20 +1300,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1343,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1351,7 +1342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1359,7 +1350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1375,7 +1366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1391,7 +1382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1399,7 +1390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1407,7 +1398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1415,7 +1406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1423,7 +1414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1431,7 +1422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1439,7 +1430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1447,7 +1438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1455,7 +1446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,7 +1454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1471,7 +1462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1479,7 +1470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1487,7 +1478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1495,29 +1486,54 @@
         <v>41</v>
       </c>
     </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.0"/>
-    <col customWidth="1" min="2" max="2" width="44.86"/>
-    <col customWidth="1" min="3" max="3" width="156.86"/>
-    <col customWidth="1" min="4" max="4" width="25.86"/>
-    <col customWidth="1" min="5" max="5" width="30.14"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="3" max="3" width="156.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -1531,7 +1547,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
@@ -1548,7 +1564,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
@@ -1565,7 +1581,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>54</v>
       </c>
@@ -1582,7 +1598,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>58</v>
       </c>
@@ -1597,7 +1613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
@@ -1614,7 +1630,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
@@ -1631,7 +1647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>69</v>
       </c>
@@ -1648,7 +1664,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>73</v>
       </c>
@@ -1665,7 +1681,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>77</v>
       </c>
@@ -1682,7 +1698,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>81</v>
       </c>
@@ -1695,7 +1711,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>83</v>
       </c>
@@ -1712,7 +1728,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>86</v>
       </c>
@@ -1724,7 +1740,7 @@
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>89</v>
       </c>
@@ -1739,7 +1755,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>93</v>
       </c>
@@ -1751,7 +1767,7 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>96</v>
       </c>
@@ -1763,7 +1779,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>99</v>
       </c>
@@ -1775,7 +1791,7 @@
       </c>
       <c r="D17" s="11"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="42" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>102</v>
       </c>
@@ -1787,7 +1803,7 @@
       </c>
       <c r="D18" s="11"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="28" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>105</v>
       </c>
@@ -1799,7 +1815,7 @@
       </c>
       <c r="D19" s="11"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="28" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>108</v>
       </c>
@@ -1811,7 +1827,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="28" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>111</v>
       </c>
@@ -1823,7 +1839,7 @@
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="28" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>114</v>
       </c>
@@ -1834,7 +1850,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="28" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>117</v>
       </c>
@@ -1845,46 +1861,47 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="18"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C25" s="18"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B16"/>
+    <hyperlink ref="B16" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.43"/>
-    <col customWidth="1" min="3" max="3" width="25.29"/>
-    <col customWidth="1" min="4" max="4" width="37.43"/>
-    <col customWidth="1" min="5" max="5" width="18.0"/>
-    <col customWidth="1" min="6" max="6" width="56.86"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="56.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>122</v>
       </c>
@@ -1924,7 +1941,7 @@
       <c r="Y1" s="22"/>
       <c r="Z1" s="22"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>128</v>
       </c>
@@ -1962,7 +1979,7 @@
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
         <v>62</v>
       </c>
@@ -1985,7 +2002,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
         <v>136</v>
       </c>
@@ -2006,7 +2023,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>140</v>
       </c>
@@ -2027,7 +2044,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>144</v>
       </c>
@@ -2048,7 +2065,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>149</v>
       </c>
@@ -2069,7 +2086,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
         <v>153</v>
       </c>
@@ -2090,7 +2107,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>158</v>
       </c>
@@ -2109,7 +2126,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>162</v>
       </c>
@@ -2128,7 +2145,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>166</v>
       </c>
@@ -2147,7 +2164,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>170</v>
       </c>
@@ -2166,7 +2183,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>173</v>
       </c>
@@ -2185,7 +2202,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26" t="s">
         <v>177</v>
       </c>
@@ -2204,7 +2221,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>181</v>
       </c>
@@ -2223,7 +2240,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>185</v>
       </c>
@@ -2242,7 +2259,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
         <v>189</v>
       </c>
@@ -2261,7 +2278,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
         <v>193</v>
       </c>
@@ -2280,7 +2297,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
         <v>197</v>
       </c>
@@ -2299,7 +2316,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>201</v>
       </c>
@@ -2318,7 +2335,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
         <v>205</v>
       </c>
@@ -2337,7 +2354,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>209</v>
       </c>
@@ -2356,7 +2373,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26" t="s">
         <v>213</v>
       </c>
@@ -2375,7 +2392,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26" t="s">
         <v>217</v>
       </c>
@@ -2394,7 +2411,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26" t="s">
         <v>221</v>
       </c>
@@ -2413,7 +2430,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26" t="s">
         <v>225</v>
       </c>
@@ -2432,7 +2449,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26" t="s">
         <v>229</v>
       </c>
@@ -2451,7 +2468,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26" t="s">
         <v>233</v>
       </c>
@@ -2470,7 +2487,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
         <v>237</v>
       </c>
@@ -2489,7 +2506,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="s">
         <v>241</v>
       </c>
@@ -2508,7 +2525,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
         <v>245</v>
       </c>
@@ -2527,7 +2544,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
         <v>249</v>
       </c>
@@ -2546,7 +2563,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="36" t="s">
         <v>253</v>
       </c>
@@ -2567,7 +2584,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="38" t="s">
         <v>257</v>
       </c>
@@ -2588,7 +2605,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="41" t="s">
         <v>260</v>
       </c>
@@ -2602,15 +2619,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/DesignedAndPredictedSequences.xlsx
+++ b/data/DesignedAndPredictedSequences.xlsx
@@ -1,35 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarachari/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
-  </bookViews>
   <sheets>
-    <sheet name="ClickTags" sheetId="1" r:id="rId1"/>
-    <sheet name="NeuropeptidesNewAndPublished" sheetId="2" r:id="rId2"/>
-    <sheet name="InSituMarkers" sheetId="3" r:id="rId3"/>
+    <sheet state="visible" name="ClickTags" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="NeuropeptidesNewAndPublished" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="InSituMarkers" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="FigureMarkers" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="448">
   <si>
     <t>BarCode</t>
   </si>
@@ -299,21 +284,27 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Courier New"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
       <t>PP14  F</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Courier New"/>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
       </rPr>
       <t>M</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Courier New"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
       </rPr>
       <t>Fa</t>
     </r>
@@ -382,7 +373,22 @@
     <t>MLLILAFWMVLLQQVSAACYNGQVEGSIISLRNGETSECKQGIATKLSAWRNTKREDVTASDTEKNQWHFELFGDSRPLSFANHRGPWMRAGRKDEPRPWLQFGRRDINFEVFHSDKYNEPPFAMINGKRTANSKKIYSEKINELPFAIMKGKRKVNSKRLHSVEINDLPFVMMNGKRHARDNIVGPKGMSLQWASRFGKKDNSKKELKIKNSNSKRNTKPWFDIGSEGSSLQWQVNPFGKRGKRDTLPWYELEGGGLHWNRRIASKRSQRLQLPPRVPHKRGERY</t>
   </si>
   <si>
-    <t>PP25*</t>
+    <r>
+      <rPr>
+        <rFont val="Courier New"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>PP25</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Courier New"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
     <t>XLOC_021799</t>
@@ -391,7 +397,22 @@
     <t>MKSLLVIALFAFCYAKVEEKHKQVHHKQPVEANVKKSPPVQERFGKEEQNSPLEGRFGKESATKPEEEAASHVLAVRSPNDKELPAEYLAHSHKKESIPMKYSGSSEEGDAELPHSMLVGDDKLPHSMINGDEKLPQSMLYARENEDLPLFRKDLPLFKKDLPLFKKDLPLFRKDLPLFHKDLPLFKKDLPLFRKDLPLFRKDLPLFRKDLPLFKKDLPLFRKDLPLFKKDLPLFRKDLPLFKKEIEELPLFRKESSELPLFRKENEDLPLFRKDSELPLFRKENSELPLFRKEASELPL</t>
   </si>
   <si>
-    <t>PP26*</t>
+    <r>
+      <rPr>
+        <rFont val="Courier New"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>PP26</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Courier New"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
     <t>XLOC_008730</t>
@@ -400,7 +421,22 @@
     <t>MRLVNVVLTILTSKIALGEGRPPSRESDIDQQLIRLAHEIRREIQPGPFGNYRGYAPPRLGKRENIDGKKGVTSQKRRTVEALDKIGQILLNHRKSLSSDSEVFKNGKKMMTDHLDTTSRKRTHHFIKAKNVPFWYFNKRGLSNQVDGKKTLGDGNKPAFTHHSQPTFDKFADDVIEKLTTLNKQIKHDAINERDEKMKKRERVGMKSKWNFWPPRLGRKRETTLNRNMEKAKHPYDRILDDKKGL</t>
   </si>
   <si>
-    <t>PP27*</t>
+    <r>
+      <rPr>
+        <rFont val="Courier New"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>PP27</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Courier New"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
     <t>XLOC_014624</t>
@@ -470,7 +506,7 @@
     <t>Lapébie et al  2014. PLoS Genetics</t>
   </si>
   <si>
-    <t>XLOC_036066</t>
+    <t>XLOC_036006</t>
   </si>
   <si>
     <t>AFD28590</t>
@@ -481,17 +517,17 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Calibri"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">Leclère et al 2012 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Calibri"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">Dev Biol. </t>
     </r>
@@ -539,6 +575,12 @@
     <t>Denker et al., 2008 Dev Biol</t>
   </si>
   <si>
+    <t>pp1</t>
+  </si>
+  <si>
+    <t>Takeda et al., 2016</t>
+  </si>
+  <si>
     <t>XLOC_029934</t>
   </si>
   <si>
@@ -588,237 +630,267 @@
   </si>
   <si>
     <t>SA0AAA9YD16</t>
-  </si>
-  <si>
-    <t>cathepsin L family</t>
-  </si>
-  <si>
-    <t>CathepsinL</t>
-  </si>
-  <si>
-    <t>XLOC_002272</t>
-  </si>
-  <si>
-    <t>SA0AAB16YM07</t>
-  </si>
-  <si>
-    <t>ShKT and trypsin domain protease A</t>
-  </si>
-  <si>
-    <t>ShKT-TrypA</t>
-  </si>
-  <si>
-    <t>XLOC_034427</t>
-  </si>
-  <si>
-    <t>SA0AAB90YL11</t>
-  </si>
-  <si>
-    <t>ShKT and trypsin domain protease B</t>
-  </si>
-  <si>
-    <t>ShKT-TrypB</t>
-  </si>
-  <si>
-    <t>XLOC_001911</t>
-  </si>
-  <si>
-    <t>SA0AAA2YF12</t>
-  </si>
-  <si>
-    <t>Trypsin-like serine protease</t>
-  </si>
-  <si>
-    <t>Tryp-like</t>
-  </si>
-  <si>
-    <t>XLOC_011101</t>
-  </si>
-  <si>
-    <t>SA0AAB115YG16</t>
-  </si>
-  <si>
-    <t>Class 3 Lipase</t>
-  </si>
-  <si>
-    <t>C3-Lipase</t>
-  </si>
-  <si>
-    <t>XLOC_002105</t>
-  </si>
-  <si>
-    <t>SA0AAB8YF07</t>
-  </si>
-  <si>
-    <t>GH18 family Chitinase</t>
-  </si>
-  <si>
-    <t>Chitinase</t>
-  </si>
-  <si>
-    <t>XLOC_044475</t>
-  </si>
-  <si>
-    <t>SA0AAB71YE05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An-peroxidase family </t>
-  </si>
-  <si>
-    <t>Peroxidase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XLOC_006072 </t>
-  </si>
-  <si>
-    <t>SA0AAA5YE04</t>
-  </si>
-  <si>
-    <t>Fibrinogen-C domain protein-1</t>
-  </si>
-  <si>
-    <t>FibCdom-1</t>
-  </si>
-  <si>
-    <t>XLOC_008632</t>
-  </si>
-  <si>
-    <t>SA0AAB28YI15</t>
-  </si>
-  <si>
-    <t>Fibrinogen-C domain protein  2</t>
-  </si>
-  <si>
-    <t>FibCdom-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XLOC_021506 </t>
-  </si>
-  <si>
-    <t>IL0ABA28YD22</t>
-  </si>
-  <si>
-    <t>C-type lectin</t>
-  </si>
-  <si>
-    <t>C-Lectin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XLOC_032555 </t>
-  </si>
-  <si>
-    <t>SA0AAA12YG09</t>
-  </si>
-  <si>
-    <t>Nucleoside hydrolase</t>
-  </si>
-  <si>
-    <t>NucHydr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XLOC_038345 </t>
-  </si>
-  <si>
-    <t>SA0AAB63YB16</t>
-  </si>
-  <si>
-    <t>Clytia uncharacterised Gastroderm protein</t>
-  </si>
-  <si>
-    <t>CheGast</t>
-  </si>
-  <si>
-    <t>XLOC_010708</t>
-  </si>
-  <si>
-    <t>SA0AAB77YB21</t>
-  </si>
-  <si>
-    <t>Pancreatic lipase-like enzyme</t>
-  </si>
-  <si>
-    <t>P-Lipase</t>
-  </si>
-  <si>
-    <t>XLOC_009978</t>
-  </si>
-  <si>
-    <t>SA0AAA25YN03</t>
-  </si>
-  <si>
-    <t>Clytia uncharacterised Mechanosensory cell protein</t>
-  </si>
-  <si>
-    <t>CheMS</t>
-  </si>
-  <si>
-    <t>XLOC_042133</t>
-  </si>
-  <si>
-    <t>SA0AAB5YK17</t>
-  </si>
-  <si>
-    <t>Lynx family  protein</t>
-  </si>
-  <si>
-    <t>Lynx</t>
-  </si>
-  <si>
-    <t>XLOC_029929</t>
-  </si>
-  <si>
-    <t>SA0AAB46YP09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipoygenase </t>
-  </si>
-  <si>
-    <t>LOX</t>
-  </si>
-  <si>
-    <t>XLOC_008533</t>
-  </si>
-  <si>
-    <t>SA0AAB14YJ14</t>
-  </si>
-  <si>
-    <t>BP10-like Zinc metalloprotease</t>
-  </si>
-  <si>
-    <t>BP10-like</t>
-  </si>
-  <si>
-    <t>XLOC_033751</t>
-  </si>
-  <si>
-    <t>SA0AAB131YO02</t>
-  </si>
-  <si>
-    <t>Fibulin family protein</t>
-  </si>
-  <si>
-    <t>Fibulin</t>
-  </si>
-  <si>
-    <t>XLOC_005609</t>
-  </si>
-  <si>
-    <t>SA0AAA22YK19</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">cathepsin L </t>
+    </r>
+    <r>
+      <rPr>
         <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>family</t>
+    </r>
+  </si>
+  <si>
+    <t>CathepsinL</t>
+  </si>
+  <si>
+    <t>XLOC_002272</t>
+  </si>
+  <si>
+    <t>SA0AAB16YM07</t>
+  </si>
+  <si>
+    <t>ShKT and trypsin domain protease A</t>
+  </si>
+  <si>
+    <t>ShKT-TrypA</t>
+  </si>
+  <si>
+    <t>XLOC_034427</t>
+  </si>
+  <si>
+    <t>SA0AAB90YL11</t>
+  </si>
+  <si>
+    <t>ShKT and trypsin domain protease B</t>
+  </si>
+  <si>
+    <t>ShKT-TrypB</t>
+  </si>
+  <si>
+    <t>XLOC_001911</t>
+  </si>
+  <si>
+    <t>SA0AAA2YF12</t>
+  </si>
+  <si>
+    <t>Trypsin-like serine protease</t>
+  </si>
+  <si>
+    <t>Tryp-like</t>
+  </si>
+  <si>
+    <t>XLOC_011101</t>
+  </si>
+  <si>
+    <t>SA0AAB115YG16</t>
+  </si>
+  <si>
+    <t>Class 3 Lipase</t>
+  </si>
+  <si>
+    <t>C3-Lipase</t>
+  </si>
+  <si>
+    <t>XLOC_002105</t>
+  </si>
+  <si>
+    <t>SA0AAB8YF07</t>
+  </si>
+  <si>
+    <t>GH18 family Chitinase</t>
+  </si>
+  <si>
+    <t>Chitinase</t>
+  </si>
+  <si>
+    <t>XLOC_044475</t>
+  </si>
+  <si>
+    <t>SA0AAB71YE05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An-peroxidase family </t>
+  </si>
+  <si>
+    <t>Peroxidase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XLOC_006072 </t>
+  </si>
+  <si>
+    <t>SA0AAA5YE04</t>
+  </si>
+  <si>
+    <t>Fibrinogen-C domain protein-1</t>
+  </si>
+  <si>
+    <t>FibCdom-1</t>
+  </si>
+  <si>
+    <t>XLOC_008632</t>
+  </si>
+  <si>
+    <t>SA0AAB28YI15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Fibrinogen-C domain protein  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>FibCdom-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XLOC_021506 </t>
+  </si>
+  <si>
+    <t>IL0ABA28YD22</t>
+  </si>
+  <si>
+    <t>C-type lectin</t>
+  </si>
+  <si>
+    <t>C-Lectin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XLOC_032555 </t>
+  </si>
+  <si>
+    <t>SA0AAA12YG09</t>
+  </si>
+  <si>
+    <t>Nucleoside hydrolase</t>
+  </si>
+  <si>
+    <t>NucHydr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XLOC_038345 </t>
+  </si>
+  <si>
+    <t>SA0AAB63YB16</t>
+  </si>
+  <si>
+    <t>Clytia uncharacterised Gastroderm protein</t>
+  </si>
+  <si>
+    <t>CheGast</t>
+  </si>
+  <si>
+    <t>XLOC_010708</t>
+  </si>
+  <si>
+    <t>SA0AAB77YB21</t>
+  </si>
+  <si>
+    <t>Pancreatic lipase-like enzyme</t>
+  </si>
+  <si>
+    <t>P-Lipase</t>
+  </si>
+  <si>
+    <t>XLOC_009978</t>
+  </si>
+  <si>
+    <t>SA0AAA25YN03</t>
+  </si>
+  <si>
+    <t>Clytia uncharacterised Mechanosensory cell protein</t>
+  </si>
+  <si>
+    <t>CheMS</t>
+  </si>
+  <si>
+    <t>XLOC_042133</t>
+  </si>
+  <si>
+    <t>SA0AAB5YK17</t>
+  </si>
+  <si>
+    <t>Lynx family  protein</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
+    <t>XLOC_029929</t>
+  </si>
+  <si>
+    <t>SA0AAB46YP09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipoygenase </t>
+  </si>
+  <si>
+    <t>LOX</t>
+  </si>
+  <si>
+    <t>XLOC_007437</t>
+  </si>
+  <si>
+    <t>SA0AAB14YJ14</t>
+  </si>
+  <si>
+    <t>BP10-like Zinc metalloprotease</t>
+  </si>
+  <si>
+    <t>BP10-like</t>
+  </si>
+  <si>
+    <t>XLOC_033751</t>
+  </si>
+  <si>
+    <t>SA0AAB131YO02</t>
+  </si>
+  <si>
+    <t>Fibulin family protein</t>
+  </si>
+  <si>
+    <t>Fibulin</t>
+  </si>
+  <si>
+    <t>XLOC_005609</t>
+  </si>
+  <si>
+    <t>SA0AAA22YK19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
       </rPr>
       <t>V</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
       </rPr>
       <t>CBS repeat-containing protein</t>
     </r>
@@ -872,130 +944,697 @@
     <t>Unknown/Clytia-specific</t>
   </si>
   <si>
-    <t>BlockingOligo</t>
-  </si>
-  <si>
-    <t>CACACCAGGTCTCAAAGCGACTTCAATAGCCATAGCCGTCG</t>
-  </si>
-  <si>
-    <t>LCDBF</t>
-  </si>
-  <si>
-    <t>LCDBR</t>
-  </si>
-  <si>
-    <t>ttaaccgtagtaagcgcttacgatagtaaactagtTTACAGCATCTCAACAAAGGATTGC</t>
-  </si>
-  <si>
-    <t>ctagtttactatcgtaagcgcttactacggttaaaaaaATGTACACCCTGGGTATTGATG</t>
+    <t>XLOC_039385</t>
+  </si>
+  <si>
+    <t>SA0AAB71YB19</t>
+  </si>
+  <si>
+    <t>M14-peptidase</t>
+  </si>
+  <si>
+    <t>XLOC_011100</t>
+  </si>
+  <si>
+    <t>SA0AAB79YL04</t>
+  </si>
+  <si>
+    <t>PKD2-like</t>
+  </si>
+  <si>
+    <t>XLOC_004102</t>
+  </si>
+  <si>
+    <t>IL0ABA6YE21</t>
+  </si>
+  <si>
+    <t>Nematocilin</t>
+  </si>
+  <si>
+    <t>XLOC_039341</t>
+  </si>
+  <si>
+    <t>IL0ABA28YO07</t>
+  </si>
+  <si>
+    <t>Sans / USH-1G</t>
+  </si>
+  <si>
+    <t>SA0AAB40YM12</t>
+  </si>
+  <si>
+    <t>pp17</t>
+  </si>
+  <si>
+    <t>SA0AAB114YD17</t>
+  </si>
+  <si>
+    <t>pp20</t>
+  </si>
+  <si>
+    <t>SA0AAB128YA09</t>
+  </si>
+  <si>
+    <t>pp25</t>
+  </si>
+  <si>
+    <t>SA0AAB42YP04</t>
+  </si>
+  <si>
+    <t>pp26</t>
+  </si>
+  <si>
+    <t>Fw: GAGCTCCACCGCGGTGGCGGCCGCTTACTATGCTGTTGGGTCGCC Rv: ACTCACTATAGGGCGAATTGGGTACAGGAGAAATTACAAGGGGGTTAGA</t>
+  </si>
+  <si>
+    <t>pp11</t>
+  </si>
+  <si>
+    <t>clus</t>
+  </si>
+  <si>
+    <t>markerGene</t>
+  </si>
+  <si>
+    <t>annot</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>XLOC_010813</t>
+  </si>
+  <si>
+    <t>DDX39A/B</t>
+  </si>
+  <si>
+    <t>Fig2</t>
+  </si>
+  <si>
+    <t>XLOC_008430</t>
+  </si>
+  <si>
+    <t>PA2G4</t>
+  </si>
+  <si>
+    <t>XLOC_016073</t>
+  </si>
+  <si>
+    <t>ZP-containing-1</t>
+  </si>
+  <si>
+    <t>XLOC_006164</t>
+  </si>
+  <si>
+    <t>FMN-reductiase</t>
+  </si>
+  <si>
+    <t>XLOC_013735</t>
+  </si>
+  <si>
+    <t>Innexin-like</t>
+  </si>
+  <si>
+    <t>XLOC_045848</t>
+  </si>
+  <si>
+    <t>PIGT</t>
+  </si>
+  <si>
+    <t>Tropomyosin-A</t>
+  </si>
+  <si>
+    <t>XLOC_007382</t>
+  </si>
+  <si>
+    <t>CEP135-like</t>
+  </si>
+  <si>
+    <t>XLOC_037011</t>
+  </si>
+  <si>
+    <t>Tubulin-A</t>
+  </si>
+  <si>
+    <t>XLOC_015412</t>
+  </si>
+  <si>
+    <t>PAMR1</t>
+  </si>
+  <si>
+    <t>XLOC_010440</t>
+  </si>
+  <si>
+    <t>Receptor kinase-like</t>
+  </si>
+  <si>
+    <t>XLOC_006180</t>
+  </si>
+  <si>
+    <t>Myosin light chain</t>
+  </si>
+  <si>
+    <t>XLOC_000865</t>
+  </si>
+  <si>
+    <t>Synaptotagmin</t>
+  </si>
+  <si>
+    <t>XLOC_012339</t>
+  </si>
+  <si>
+    <t>Profilin-containing</t>
+  </si>
+  <si>
+    <t>XLOC_041762</t>
+  </si>
+  <si>
+    <t>QTRT1</t>
+  </si>
+  <si>
+    <t>XLOC_008047</t>
+  </si>
+  <si>
+    <t>Collagen-like</t>
+  </si>
+  <si>
+    <t>XLOC_036841</t>
+  </si>
+  <si>
+    <t>EPRS</t>
+  </si>
+  <si>
+    <t>XLOC_003851</t>
+  </si>
+  <si>
+    <t>ZP-containing-2</t>
+  </si>
+  <si>
+    <t>XLOC_004012</t>
+  </si>
+  <si>
+    <t>Antimicrobial-like</t>
+  </si>
+  <si>
+    <t>XLOC_005505</t>
+  </si>
+  <si>
+    <t>APOB</t>
+  </si>
+  <si>
+    <t>XLOC_043529</t>
+  </si>
+  <si>
+    <t>Vitellogenin-like</t>
+  </si>
+  <si>
+    <t>Fibrillar-collagen-B</t>
+  </si>
+  <si>
+    <t>XLOC_001844</t>
+  </si>
+  <si>
+    <t>Fibrillar-collagen-C</t>
+  </si>
+  <si>
+    <t>CPD</t>
+  </si>
+  <si>
+    <t>XLOC_045557</t>
+  </si>
+  <si>
+    <t>PHF24</t>
+  </si>
+  <si>
+    <t>XLOC_013064</t>
+  </si>
+  <si>
+    <t>DD3-3-like</t>
+  </si>
+  <si>
+    <t>XLOC_031872</t>
+  </si>
+  <si>
+    <t>Transgelin-like</t>
+  </si>
+  <si>
+    <t>XLOC_043396</t>
+  </si>
+  <si>
+    <t>IFI30-a</t>
+  </si>
+  <si>
+    <t>XLOC_009436</t>
+  </si>
+  <si>
+    <t>Clytia-specific 1</t>
+  </si>
+  <si>
+    <t>XLOC_010296</t>
+  </si>
+  <si>
+    <t>CDC23</t>
+  </si>
+  <si>
+    <t>XLOC_014033</t>
+  </si>
+  <si>
+    <t>Astacin-1</t>
+  </si>
+  <si>
+    <t>XLOC_036454</t>
+  </si>
+  <si>
+    <t>Astacin-2</t>
+  </si>
+  <si>
+    <t>XLOC_005128</t>
+  </si>
+  <si>
+    <t>Thioredoxin-containing</t>
+  </si>
+  <si>
+    <t>XLOC_041612</t>
+  </si>
+  <si>
+    <t>IFI30-b</t>
+  </si>
+  <si>
+    <t>XLOC_001230</t>
+  </si>
+  <si>
+    <t>NIT2</t>
+  </si>
+  <si>
+    <t>PP5 RFamide</t>
+  </si>
+  <si>
+    <t>XLOC_019066</t>
+  </si>
+  <si>
+    <t>Trypsin-like 1</t>
+  </si>
+  <si>
+    <t>XLOC_033336</t>
+  </si>
+  <si>
+    <t>CCDC18</t>
+  </si>
+  <si>
+    <t>XLOC_033337</t>
+  </si>
+  <si>
+    <t>Clytin-like</t>
+  </si>
+  <si>
+    <t>XLOC_035357</t>
+  </si>
+  <si>
+    <t>GFP-like</t>
+  </si>
+  <si>
+    <t>XLOC_037813</t>
+  </si>
+  <si>
+    <t>Tropomyosin-C</t>
+  </si>
+  <si>
+    <t>XLOC_039972</t>
+  </si>
+  <si>
+    <t>ZP-containing-3</t>
+  </si>
+  <si>
+    <t>XLOC_002774</t>
+  </si>
+  <si>
+    <t>ARV1</t>
+  </si>
+  <si>
+    <t>Clytia-specific 2</t>
+  </si>
+  <si>
+    <t>XLOC_034219</t>
+  </si>
+  <si>
+    <t>Trypsin-like 2</t>
+  </si>
+  <si>
+    <t>XLOC_004069</t>
+  </si>
+  <si>
+    <t>VMO1</t>
+  </si>
+  <si>
+    <t>XLOC_012283</t>
+  </si>
+  <si>
+    <t>Gal_Lectin-containing</t>
+  </si>
+  <si>
+    <t>XLOC_004673</t>
+  </si>
+  <si>
+    <t>ADAMTS17/19</t>
+  </si>
+  <si>
+    <t>XLOC_045218</t>
+  </si>
+  <si>
+    <t>SKP1</t>
+  </si>
+  <si>
+    <t>Fig3</t>
+  </si>
+  <si>
+    <t>XLOC_011074</t>
+  </si>
+  <si>
+    <t>TUBA1C</t>
+  </si>
+  <si>
+    <t>XLOC_041836</t>
+  </si>
+  <si>
+    <t>NACA2</t>
+  </si>
+  <si>
+    <t>XLOC_019170</t>
+  </si>
+  <si>
+    <t>PGS-AAb</t>
+  </si>
+  <si>
+    <t>XLOC_041365</t>
+  </si>
+  <si>
+    <t>TF IIIA</t>
+  </si>
+  <si>
+    <t>XLOC_008048</t>
+  </si>
+  <si>
+    <t>Mcol</t>
+  </si>
+  <si>
+    <t>XLOC_018627</t>
+  </si>
+  <si>
+    <t>NOWA</t>
+  </si>
+  <si>
+    <t>Mcol3/4</t>
+  </si>
+  <si>
+    <t>XLOC_030068</t>
+  </si>
+  <si>
+    <t>Dkk3</t>
+  </si>
+  <si>
+    <t>XLOC_045474</t>
+  </si>
+  <si>
+    <t>SOCS-like</t>
+  </si>
+  <si>
+    <t>XLOC_043404</t>
+  </si>
+  <si>
+    <t>WW-domain</t>
+  </si>
+  <si>
+    <t>XLOC_005363</t>
+  </si>
+  <si>
+    <t>Clytia-specific 3</t>
+  </si>
+  <si>
+    <t>Sans/USH-1G</t>
+  </si>
+  <si>
+    <t>Fig4b</t>
+  </si>
+  <si>
+    <t>XLOC_010226</t>
+  </si>
+  <si>
+    <t>aGPCR 3</t>
+  </si>
+  <si>
+    <t>XLOC_018937</t>
+  </si>
+  <si>
+    <t>Ngn</t>
+  </si>
+  <si>
+    <t>XLOC_045293</t>
+  </si>
+  <si>
+    <t>SOX-10</t>
+  </si>
+  <si>
+    <t>XLOC_034623</t>
+  </si>
+  <si>
+    <t>SIX-like</t>
+  </si>
+  <si>
+    <t>XLOC_012560</t>
+  </si>
+  <si>
+    <t>Clytia-specific 5</t>
+  </si>
+  <si>
+    <t>XLOC_030920</t>
+  </si>
+  <si>
+    <t>hlh-6</t>
+  </si>
+  <si>
+    <t>XLOC_038831</t>
+  </si>
+  <si>
+    <t>Semaphorin</t>
+  </si>
+  <si>
+    <t>PP11</t>
+  </si>
+  <si>
+    <t>XLOC_002941</t>
+  </si>
+  <si>
+    <t>aGPCR 2</t>
+  </si>
+  <si>
+    <t>PP5</t>
+  </si>
+  <si>
+    <t>XLOC_034910</t>
+  </si>
+  <si>
+    <t>NCALD</t>
+  </si>
+  <si>
+    <t>XLOC_012650</t>
+  </si>
+  <si>
+    <t>Clytia-specific 4</t>
+  </si>
+  <si>
+    <t>Fig4d</t>
+  </si>
+  <si>
+    <t>PP24</t>
+  </si>
+  <si>
+    <t>PP7</t>
+  </si>
+  <si>
+    <t>PP8</t>
+  </si>
+  <si>
+    <t>PP19</t>
+  </si>
+  <si>
+    <t>PP21</t>
+  </si>
+  <si>
+    <t>PP25</t>
+  </si>
+  <si>
+    <t>PP15</t>
+  </si>
+  <si>
+    <t>PP1</t>
+  </si>
+  <si>
+    <t>XLOC_041402</t>
+  </si>
+  <si>
+    <t>PP9</t>
+  </si>
+  <si>
+    <t>PP14</t>
+  </si>
+  <si>
+    <t>PP26</t>
+  </si>
+  <si>
+    <t>PP27</t>
+  </si>
+  <si>
+    <t>PP17</t>
+  </si>
+  <si>
+    <t>PP20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="30">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Courier New"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF222222"/>
       <name val="Courier New"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="10.0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Courier New&quot;"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color rgb="FF953735"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF1D1C1D"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Monospace"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Monospace"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1009,108 +1648,226 @@
         <bgColor rgb="FFFFFFFE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor rgb="FFF7F7F7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="64">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1300,25 +2057,20 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1334,7 +2086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1342,7 +2094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +2102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +2110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +2118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1374,7 +2126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,7 +2134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1390,7 +2142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1398,7 +2150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1406,7 +2158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1414,7 +2166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1422,7 +2174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1430,7 +2182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1438,7 +2190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1446,7 +2198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1454,7 +2206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1462,7 +2214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1470,7 +2222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1478,7 +2230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1486,54 +2238,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>269</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" customWidth="1"/>
-    <col min="3" max="3" width="156.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="22.0"/>
+    <col customWidth="1" min="2" max="2" width="44.86"/>
+    <col customWidth="1" min="3" max="3" width="156.86"/>
+    <col customWidth="1" min="4" max="4" width="25.86"/>
+    <col customWidth="1" min="5" max="5" width="30.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -1547,7 +2274,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
@@ -1564,7 +2291,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
@@ -1581,7 +2308,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" s="8" t="s">
         <v>54</v>
       </c>
@@ -1598,7 +2325,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" s="8" t="s">
         <v>58</v>
       </c>
@@ -1613,7 +2340,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
@@ -1630,7 +2357,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
@@ -1647,7 +2374,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" s="8" t="s">
         <v>69</v>
       </c>
@@ -1664,7 +2391,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" s="8" t="s">
         <v>73</v>
       </c>
@@ -1681,7 +2408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" s="8" t="s">
         <v>77</v>
       </c>
@@ -1698,7 +2425,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" s="8" t="s">
         <v>81</v>
       </c>
@@ -1711,7 +2438,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" s="8" t="s">
         <v>83</v>
       </c>
@@ -1728,7 +2455,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" s="8" t="s">
         <v>86</v>
       </c>
@@ -1740,7 +2467,7 @@
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" s="8" t="s">
         <v>89</v>
       </c>
@@ -1755,7 +2482,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" s="8" t="s">
         <v>93</v>
       </c>
@@ -1767,7 +2494,7 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" s="8" t="s">
         <v>96</v>
       </c>
@@ -1779,7 +2506,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" s="8" t="s">
         <v>99</v>
       </c>
@@ -1791,7 +2518,7 @@
       </c>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" ht="42" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" s="8" t="s">
         <v>102</v>
       </c>
@@ -1803,7 +2530,7 @@
       </c>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" s="8" t="s">
         <v>105</v>
       </c>
@@ -1815,7 +2542,7 @@
       </c>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" s="8" t="s">
         <v>108</v>
       </c>
@@ -1827,7 +2554,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" s="8" t="s">
         <v>111</v>
       </c>
@@ -1839,7 +2566,7 @@
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" s="3" t="s">
         <v>114</v>
       </c>
@@ -1850,7 +2577,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" s="3" t="s">
         <v>117</v>
       </c>
@@ -1861,47 +2588,46 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="C24" s="18"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C25" s="18"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="A27" s="19" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B16"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="37.5" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="56.83203125" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="20.43"/>
+    <col customWidth="1" min="3" max="3" width="31.86"/>
+    <col customWidth="1" min="4" max="4" width="37.43"/>
+    <col customWidth="1" min="5" max="5" width="18.0"/>
+    <col customWidth="1" min="6" max="6" width="56.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="20" t="s">
         <v>122</v>
       </c>
@@ -1941,7 +2667,7 @@
       <c r="Y1" s="22"/>
       <c r="Z1" s="22"/>
     </row>
-    <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="23" t="s">
         <v>128</v>
       </c>
@@ -1979,7 +2705,7 @@
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="26" t="s">
         <v>62</v>
       </c>
@@ -2002,7 +2728,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4" s="26" t="s">
         <v>136</v>
       </c>
@@ -2023,8 +2749,8 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:26" ht="14" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="5">
+      <c r="A5" s="29" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -2044,11 +2770,11 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>145</v>
       </c>
       <c r="C6" s="11"/>
@@ -2065,11 +2791,11 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>150</v>
       </c>
       <c r="C7" s="11"/>
@@ -2086,7 +2812,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="26" t="s">
         <v>153</v>
       </c>
@@ -2107,527 +2833,1963 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+    <row r="9">
+      <c r="A9" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
+      <c r="E9" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>163</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>165</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>167</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>169</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>171</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>172</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>175</v>
-      </c>
       <c r="E13" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="26" t="s">
+    <row r="14">
+      <c r="A14" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="26" t="s">
+      <c r="E14" s="28" t="s">
         <v>178</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>180</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+    <row r="15">
+      <c r="A15" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="s">
+      <c r="E15" s="28" t="s">
         <v>182</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>184</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>186</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>188</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="A17" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>190</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>192</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="A18" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>194</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>196</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="A19" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="31" t="s">
+      <c r="E19" s="28" t="s">
         <v>198</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>200</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="A20" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
+      <c r="E20" s="37" t="s">
         <v>202</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>204</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="A21" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>206</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>208</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="A22" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>210</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>212</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="26" t="s">
+    <row r="23">
+      <c r="A23" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="26" t="s">
+      <c r="E23" s="28" t="s">
         <v>214</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>216</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="A24" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>218</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>220</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="A25" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="28" t="s">
         <v>222</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>224</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="A26" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="E26" s="28" t="s">
         <v>226</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>228</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="A27" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="28" t="s">
         <v>230</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>232</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="A28" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28" s="28" t="s">
         <v>234</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>236</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
+    <row r="29">
+      <c r="A29" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11" t="s">
+      <c r="E29" s="23" t="s">
         <v>238</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>240</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
-        <v>241</v>
+    <row r="30">
+      <c r="A30" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" s="28" t="s">
         <v>242</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>244</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="A31" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>248</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="A32" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="E32" s="28" t="s">
         <v>250</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>252</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="36" t="s">
+    <row r="33">
+      <c r="A33" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="B33" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="37" t="s">
+      <c r="E33" s="23" t="s">
         <v>254</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>256</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="38" t="s">
+    <row r="34">
+      <c r="A34" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="39" t="s">
+      <c r="E34" s="23" t="s">
         <v>258</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>259</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="A35" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="D35" s="33" t="s">
         <v>261</v>
       </c>
+      <c r="E35" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="B37" s="47"/>
+      <c r="C37" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38" s="47"/>
+      <c r="C38" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39" s="47"/>
+      <c r="C39" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" s="47"/>
+      <c r="C40" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="47"/>
+      <c r="C43" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="47"/>
+      <c r="C45" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="51">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="51">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="51">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="51">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="51">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="51">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="51">
+        <v>6.0</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="51">
+        <v>7.0</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="51">
+        <v>8.0</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="51">
+        <v>8.0</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="51">
+        <v>9.0</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="51">
+        <v>10.0</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="51">
+        <v>11.0</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="51">
+        <v>11.0</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="51">
+        <v>12.0</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="51">
+        <v>13.0</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="51">
+        <v>14.0</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="51">
+        <v>15.0</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="51">
+        <v>15.0</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="51">
+        <v>16.0</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="51">
+        <v>16.0</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="51">
+        <v>17.0</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="51">
+        <v>17.0</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="51">
+        <v>18.0</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>341</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="51">
+        <v>18.0</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="51">
+        <v>19.0</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="51">
+        <v>20.0</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="51">
+        <v>21.0</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="51">
+        <v>21.0</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="51">
+        <v>22.0</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="51">
+        <v>22.0</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="51">
+        <v>23.0</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>355</v>
+      </c>
       <c r="D35" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="51">
+        <v>24.0</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="51">
+        <v>24.0</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="51">
+        <v>25.0</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="51">
+        <v>26.0</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="51">
+        <v>27.0</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="51">
+        <v>28.0</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="51">
+        <v>28.0</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="51">
+        <v>29.0</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="51">
+        <v>30.0</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="51">
+        <v>30.0</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="51">
+        <v>31.0</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="51">
+        <v>31.0</v>
+      </c>
+      <c r="B47" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="E35" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
+      <c r="C47" s="50" t="s">
+        <v>375</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="51">
+        <v>32.0</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>376</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>377</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="51">
+        <v>33.0</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="51">
+        <v>34.0</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>381</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="51">
+        <v>35.0</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>383</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="51">
+        <v>35.0</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>384</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="52"/>
+      <c r="B53" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="52"/>
+      <c r="B54" s="53" t="s">
+        <v>387</v>
+      </c>
+      <c r="C54" s="54" t="s">
+        <v>388</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="52"/>
+      <c r="B55" s="53" t="s">
+        <v>389</v>
+      </c>
+      <c r="C55" s="54" t="s">
+        <v>390</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="52"/>
+      <c r="B56" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="52"/>
+      <c r="B57" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="C57" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="55"/>
+      <c r="B58" s="56" t="s">
+        <v>393</v>
+      </c>
+      <c r="C58" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="57"/>
+      <c r="B59" s="58" t="s">
+        <v>395</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="57"/>
+      <c r="B60" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="C60" s="54" t="s">
+        <v>398</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="52"/>
+      <c r="B61" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="55"/>
+      <c r="B62" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="55"/>
+      <c r="B63" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C63" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="55"/>
+      <c r="B64" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="55"/>
+      <c r="B65" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="55"/>
+      <c r="B66" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="55"/>
+      <c r="B67" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="C67" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="55"/>
+      <c r="B68" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="C68" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="55"/>
+      <c r="B69" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="60" t="s">
+        <v>389</v>
+      </c>
+      <c r="C70" s="61" t="s">
+        <v>390</v>
+      </c>
+      <c r="D70" s="61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="62" t="s">
+        <v>410</v>
+      </c>
+      <c r="C71" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="D71" s="61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="62" t="s">
+        <v>412</v>
+      </c>
+      <c r="C72" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="D72" s="61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>415</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="62" t="s">
+        <v>416</v>
+      </c>
+      <c r="C74" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="D74" s="61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="62" t="s">
+        <v>418</v>
+      </c>
+      <c r="C75" s="61" t="s">
+        <v>419</v>
+      </c>
+      <c r="D75" s="61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="62" t="s">
+        <v>420</v>
+      </c>
+      <c r="C76" s="61" t="s">
+        <v>421</v>
+      </c>
+      <c r="D76" s="61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="62" t="s">
+        <v>422</v>
+      </c>
+      <c r="C77" s="61" t="s">
+        <v>423</v>
+      </c>
+      <c r="D77" s="61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="61" t="s">
+        <v>424</v>
+      </c>
+      <c r="D78" s="61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="C79" s="61" t="s">
+        <v>426</v>
+      </c>
+      <c r="D79" s="61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="D80" s="61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="C81" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="D81" s="61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="62" t="s">
+        <v>430</v>
+      </c>
+      <c r="C82" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="D82" s="61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="62" t="s">
+        <v>412</v>
+      </c>
+      <c r="C83" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="D83" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="62" t="s">
+        <v>420</v>
+      </c>
+      <c r="C84" s="61" t="s">
+        <v>421</v>
+      </c>
+      <c r="D84" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="D85" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="61" t="s">
+        <v>434</v>
+      </c>
+      <c r="D86" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="61" t="s">
+        <v>435</v>
+      </c>
+      <c r="D87" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="61" t="s">
+        <v>436</v>
+      </c>
+      <c r="D88" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="61" t="s">
+        <v>437</v>
+      </c>
+      <c r="D89" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="D90" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="61" t="s">
+        <v>438</v>
+      </c>
+      <c r="D91" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="61" t="s">
+        <v>439</v>
+      </c>
+      <c r="D92" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" s="61" t="s">
+        <v>440</v>
+      </c>
+      <c r="D93" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" s="61" t="s">
+        <v>424</v>
+      </c>
+      <c r="D94" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="62" t="s">
+        <v>441</v>
+      </c>
+      <c r="C95" s="61" t="s">
+        <v>442</v>
+      </c>
+      <c r="D95" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="61" t="s">
+        <v>443</v>
+      </c>
+      <c r="D96" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="61" t="s">
+        <v>444</v>
+      </c>
+      <c r="D97" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" s="61" t="s">
+        <v>445</v>
+      </c>
+      <c r="D98" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" s="61" t="s">
+        <v>446</v>
+      </c>
+      <c r="D99" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="61" t="s">
+        <v>447</v>
+      </c>
+      <c r="D100" s="61" t="s">
+        <v>432</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>